--- a/SchedulingData/dynamic12/pso/scheduling2_4.xlsx
+++ b/SchedulingData/dynamic12/pso/scheduling2_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>203.62</v>
+        <v>222.84</v>
       </c>
       <c r="D2" t="n">
-        <v>266.34</v>
+        <v>255.2</v>
       </c>
       <c r="E2" t="n">
-        <v>13.556</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="3">
@@ -485,55 +485,55 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>250.86</v>
+        <v>255.2</v>
       </c>
       <c r="D3" t="n">
-        <v>296.36</v>
+        <v>329.52</v>
       </c>
       <c r="E3" t="n">
-        <v>14.124</v>
+        <v>11.348</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>266.34</v>
+        <v>200.48</v>
       </c>
       <c r="D4" t="n">
-        <v>311.94</v>
+        <v>246.38</v>
       </c>
       <c r="E4" t="n">
-        <v>10.636</v>
+        <v>15.392</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>296.36</v>
+        <v>219.3</v>
       </c>
       <c r="D5" t="n">
-        <v>337.86</v>
+        <v>279.1</v>
       </c>
       <c r="E5" t="n">
-        <v>11.604</v>
+        <v>13.78</v>
       </c>
     </row>
     <row r="6">
@@ -542,17 +542,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>311.94</v>
+        <v>250</v>
       </c>
       <c r="D6" t="n">
-        <v>347</v>
+        <v>293.54</v>
       </c>
       <c r="E6" t="n">
-        <v>8.26</v>
+        <v>13.776</v>
       </c>
     </row>
     <row r="7">
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>245.6</v>
+        <v>246.38</v>
       </c>
       <c r="D7" t="n">
-        <v>303.9</v>
+        <v>293.58</v>
       </c>
       <c r="E7" t="n">
-        <v>13.18</v>
+        <v>12.312</v>
       </c>
     </row>
     <row r="8">
@@ -580,17 +580,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>250.84</v>
+        <v>279.1</v>
       </c>
       <c r="D8" t="n">
-        <v>280.56</v>
+        <v>314.6</v>
       </c>
       <c r="E8" t="n">
-        <v>13.564</v>
+        <v>11.36</v>
       </c>
     </row>
     <row r="9">
@@ -599,17 +599,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>303.9</v>
+        <v>293.58</v>
       </c>
       <c r="D9" t="n">
-        <v>365.24</v>
+        <v>341.36</v>
       </c>
       <c r="E9" t="n">
-        <v>10.156</v>
+        <v>8.664</v>
       </c>
     </row>
     <row r="10">
@@ -618,36 +618,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>337.86</v>
+        <v>329.52</v>
       </c>
       <c r="D10" t="n">
-        <v>417.02</v>
+        <v>381.34</v>
       </c>
       <c r="E10" t="n">
-        <v>6.788</v>
+        <v>8.276</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>365.24</v>
+        <v>205.86</v>
       </c>
       <c r="D11" t="n">
-        <v>407.34</v>
+        <v>252.52</v>
       </c>
       <c r="E11" t="n">
-        <v>7.076</v>
+        <v>14.788</v>
       </c>
     </row>
     <row r="12">
@@ -656,131 +656,131 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>280.56</v>
+        <v>314.6</v>
       </c>
       <c r="D12" t="n">
-        <v>352.18</v>
+        <v>365.08</v>
       </c>
       <c r="E12" t="n">
-        <v>10.492</v>
+        <v>8.432</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>407.34</v>
+        <v>230.42</v>
       </c>
       <c r="D13" t="n">
-        <v>459.94</v>
+        <v>273.22</v>
       </c>
       <c r="E13" t="n">
-        <v>4.916</v>
+        <v>13.848</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>352.18</v>
+        <v>252.52</v>
       </c>
       <c r="D14" t="n">
-        <v>424.58</v>
+        <v>303.86</v>
       </c>
       <c r="E14" t="n">
-        <v>6.832</v>
+        <v>11.764</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>257.42</v>
+        <v>303.86</v>
       </c>
       <c r="D15" t="n">
-        <v>335.32</v>
+        <v>360.66</v>
       </c>
       <c r="E15" t="n">
-        <v>12.028</v>
+        <v>8.683999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>335.32</v>
+        <v>360.66</v>
       </c>
       <c r="D16" t="n">
-        <v>412.52</v>
+        <v>409.16</v>
       </c>
       <c r="E16" t="n">
-        <v>8.907999999999999</v>
+        <v>4.964</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>424.58</v>
+        <v>409.16</v>
       </c>
       <c r="D17" t="n">
-        <v>496.58</v>
+        <v>457.06</v>
       </c>
       <c r="E17" t="n">
-        <v>3.712</v>
+        <v>2.804</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>417.02</v>
+        <v>341.36</v>
       </c>
       <c r="D18" t="n">
-        <v>466.66</v>
+        <v>378.28</v>
       </c>
       <c r="E18" t="n">
-        <v>3.444</v>
+        <v>6.112</v>
       </c>
     </row>
     <row r="19">
@@ -789,17 +789,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>347</v>
+        <v>293.54</v>
       </c>
       <c r="D19" t="n">
-        <v>411.44</v>
+        <v>352.16</v>
       </c>
       <c r="E19" t="n">
-        <v>4.956</v>
+        <v>10.024</v>
       </c>
     </row>
     <row r="20">
@@ -808,55 +808,55 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>412.52</v>
+        <v>273.22</v>
       </c>
       <c r="D20" t="n">
-        <v>465.2</v>
+        <v>348.02</v>
       </c>
       <c r="E20" t="n">
-        <v>5.26</v>
+        <v>9.468</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>256.14</v>
+        <v>348.02</v>
       </c>
       <c r="D21" t="n">
-        <v>305.06</v>
+        <v>399.62</v>
       </c>
       <c r="E21" t="n">
-        <v>13.664</v>
+        <v>6.908</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>305.06</v>
+        <v>365.08</v>
       </c>
       <c r="D22" t="n">
-        <v>361.4</v>
+        <v>434.32</v>
       </c>
       <c r="E22" t="n">
-        <v>9.66</v>
+        <v>5.128</v>
       </c>
     </row>
     <row r="23">
@@ -865,36 +865,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>465.2</v>
+        <v>399.62</v>
       </c>
       <c r="D23" t="n">
-        <v>504.72</v>
+        <v>470.62</v>
       </c>
       <c r="E23" t="n">
-        <v>2.928</v>
+        <v>4.388</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>361.4</v>
+        <v>434.32</v>
       </c>
       <c r="D24" t="n">
-        <v>413.3</v>
+        <v>475.96</v>
       </c>
       <c r="E24" t="n">
-        <v>6.58</v>
+        <v>2.104</v>
       </c>
     </row>
     <row r="25">
@@ -903,36 +903,93 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>411.44</v>
+        <v>352.16</v>
       </c>
       <c r="D25" t="n">
-        <v>444.34</v>
+        <v>414.36</v>
       </c>
       <c r="E25" t="n">
-        <v>2.796</v>
+        <v>6.944</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>413.3</v>
+        <v>378.28</v>
       </c>
       <c r="D26" t="n">
-        <v>485.4</v>
+        <v>427.6</v>
       </c>
       <c r="E26" t="n">
-        <v>3.5</v>
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>pond19</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>381.34</v>
+      </c>
+      <c r="D27" t="n">
+        <v>444.78</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5.052</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>pond10</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>470.62</v>
+      </c>
+      <c r="D28" t="n">
+        <v>505.68</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.012</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>pond57</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>414.36</v>
+      </c>
+      <c r="D29" t="n">
+        <v>466.86</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.784</v>
       </c>
     </row>
   </sheetData>
